--- a/biology/Botanique/Tibouchina/Tibouchina.xlsx
+++ b/biology/Botanique/Tibouchina/Tibouchina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tibouchina est un genre de plantes tropicales de la famille des Melastomataceae. Ce sont des arbres, des arbustes ou des buissons qui font de 0,5 à 25 m de hauteur. Ils sont originaires des forêts tropicales humides du Mexique, des Antilles et d'Amérique du Sud, en particulier le Brésil. Le nom vient d'une adaptation d'un terme indigène de Guyane désignant des arbustes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tibouchina urvilleana
@@ -545,12 +559,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1775 par le botaniste français Jean Baptiste Christian Fusée-Aublet (1707-1778).
-Il est assigné à la famille des Melastomataceae aussi bien en classification phylogénétique APG III (2009)[1] qu'en classification classique de Cronquist (1981)[2].
-Liste d'espèces
-Selon GRIN            (5 février 2018)[3] :
+Il est assigné à la famille des Melastomataceae aussi bien en classification phylogénétique APG III (2009) qu'en classification classique de Cronquist (1981).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tibouchina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tibouchina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (5 février 2018) :
 Tibouchina aspera Aubl.
 Tibouchina clavata (Pers.) Wurdack
 Tibouchina clinopodifolia (DC.) Cogn.
@@ -573,7 +624,7 @@
 Tibouchina ursina (Cham.) Cogn.
 Tibouchina urvilleana (DC.) Cogn.
 Tibouchina violacea Cogn.
-Selon The Plant List            (5 février 2018)[4] :
+Selon The Plant List            (5 février 2018) :
 Tibouchina adenophora Cogn.
 Tibouchina aegopogon Cogn.
 Tibouchina alata Cogn.
@@ -809,7 +860,7 @@
 Tibouchina weddellii (Naudin) Cogn.
 Tibouchina wurdackii Almeda &amp; Todzia
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (5 février 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 février 2018) (Attention liste brute contenant possiblement des synonymes) :
 Tibouchina ackermannii Cogn.
 Tibouchina adamantinensis Brade
 Tibouchina ademarii P.J.F. Guim., R. Romero &amp; Leoni
@@ -1189,31 +1240,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tibouchina</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tibouchina</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces sont cultivées pour leurs grandes fleurs lumineuses. Comme les plantes tropicales, elles sont assez sensibles au froid, et doivent être cultivées dans une serre où la température ne chute pas en dessous de 8 °C à 10 °C.
 Un cultivar, Tibouchina lepidota 'Alstonville', connu pour ses fleurs brillantes et abondantes en fin d'été et en automne est courant dans de nombreuses régions de l'Australie.
@@ -1221,31 +1274,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tibouchina</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tibouchina</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces de Tibouchina sont considérées comme nuisibles à Hawaï en raison de leur forte tendance à devenir envahissantes.
 </t>
